--- a/data/IMACLIM_equivalent/MatMat_sectors_all_countries_equivalent.xlsx
+++ b/data/IMACLIM_equivalent/MatMat_sectors_all_countries_equivalent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mpotfer\Stage\MatMat-Trade\data\IMACLIM_equivalent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27D88DD-DA5F-4E2C-A088-A445EFF0C06D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E416F0-9C13-4BE0-992D-6D395B77B77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="regions" sheetId="1" r:id="rId1"/>
     <sheet name="sectors" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="158">
   <si>
     <t>AFR</t>
   </si>
@@ -248,9 +261,6 @@
     <t>RoW Middle East</t>
   </si>
   <si>
-    <t>Primary_Crops</t>
-  </si>
-  <si>
     <t>Farm_animals</t>
   </si>
   <si>
@@ -347,9 +357,6 @@
     <t>Secondary_Cement_lime_plaster</t>
   </si>
   <si>
-    <t>Other_Non-Metallic_Mineral_Products</t>
-  </si>
-  <si>
     <t>Animal_Products</t>
   </si>
   <si>
@@ -465,6 +472,42 @@
   </si>
   <si>
     <t>Public_Services</t>
+  </si>
+  <si>
+    <t>Paddy rice</t>
+  </si>
+  <si>
+    <t>Wheat</t>
+  </si>
+  <si>
+    <t>Cereal grains nec</t>
+  </si>
+  <si>
+    <t>Vegetables, fruit, nuts</t>
+  </si>
+  <si>
+    <t>Oil seeds</t>
+  </si>
+  <si>
+    <t>Sugar cane, sugar beet</t>
+  </si>
+  <si>
+    <t>Plant-based fibers</t>
+  </si>
+  <si>
+    <t>Crops nec</t>
+  </si>
+  <si>
+    <t>Nickel ores and concentrates</t>
+  </si>
+  <si>
+    <t>Precious metal ores and concentrates</t>
+  </si>
+  <si>
+    <t>Other_Non-Metallic_Mineral_Materials</t>
+  </si>
+  <si>
+    <t>Commerce</t>
   </si>
 </sst>
 </file>
@@ -616,7 +659,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -629,7 +672,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
@@ -637,18 +679,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{4279C63C-6FC8-4EAC-A493-EE457985FC12}"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <name val="Arial"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3158,11 +3189,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1792CC0-F388-467C-8E88-834E759700E5}">
-  <dimension ref="A1:M78"/>
+  <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3211,7 +3242,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B2" s="4">
         <v>1</v>
@@ -3252,3117 +3283,3637 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>76</v>
+        <v>147</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
-        <v>0</v>
-      </c>
-      <c r="D3" s="8">
-        <v>0</v>
-      </c>
-      <c r="E3" s="8">
-        <v>0</v>
-      </c>
-      <c r="F3" s="8">
-        <v>0</v>
-      </c>
-      <c r="G3" s="8">
-        <v>0</v>
-      </c>
-      <c r="H3" s="8">
-        <v>0</v>
-      </c>
-      <c r="I3" s="8">
-        <v>0</v>
-      </c>
-      <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
-      </c>
-      <c r="L3" s="8">
-        <v>0</v>
-      </c>
-      <c r="M3" s="9">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="B4" s="7">
         <v>1</v>
       </c>
-      <c r="C4" s="8">
-        <v>0</v>
-      </c>
-      <c r="D4" s="8">
-        <v>0</v>
-      </c>
-      <c r="E4" s="8">
-        <v>0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>0</v>
-      </c>
-      <c r="G4" s="8">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>78</v>
+        <v>149</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="8">
-        <v>0</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>150</v>
       </c>
       <c r="B6" s="7">
-        <v>0</v>
-      </c>
-      <c r="C6" s="8">
-        <v>0</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1</v>
-      </c>
-      <c r="E6" s="8">
-        <v>0</v>
-      </c>
-      <c r="F6" s="8">
-        <v>0</v>
-      </c>
-      <c r="G6" s="8">
-        <v>0</v>
-      </c>
-      <c r="H6" s="8">
-        <v>0</v>
-      </c>
-      <c r="I6" s="8">
-        <v>0</v>
-      </c>
-      <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
-      </c>
-      <c r="L6" s="8">
-        <v>0</v>
-      </c>
-      <c r="M6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="B7" s="7">
-        <v>0</v>
-      </c>
-      <c r="C7" s="8">
-        <v>0</v>
-      </c>
-      <c r="D7" s="8">
-        <v>0</v>
-      </c>
-      <c r="E7" s="8">
-        <v>0</v>
-      </c>
-      <c r="F7" s="8">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8">
-        <v>0</v>
-      </c>
-      <c r="H7" s="8">
-        <v>0</v>
-      </c>
-      <c r="I7" s="8">
-        <v>0</v>
-      </c>
-      <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>1</v>
-      </c>
-      <c r="L7" s="8">
-        <v>0</v>
-      </c>
-      <c r="M7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>152</v>
       </c>
       <c r="B8" s="7">
-        <v>0</v>
-      </c>
-      <c r="C8" s="8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="8">
-        <v>1</v>
-      </c>
-      <c r="H8" s="8">
-        <v>0</v>
-      </c>
-      <c r="I8" s="8">
-        <v>0</v>
-      </c>
-      <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="9">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>153</v>
       </c>
       <c r="B9" s="7">
-        <v>0</v>
-      </c>
-      <c r="C9" s="8">
-        <v>0</v>
-      </c>
-      <c r="D9" s="8">
-        <v>0</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="8">
-        <v>0</v>
-      </c>
-      <c r="G9" s="8">
-        <v>0</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>0</v>
-      </c>
-      <c r="J9" s="8">
-        <v>0</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0</v>
-      </c>
-      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0</v>
-      </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
-        <v>0</v>
-      </c>
-      <c r="F10" s="8">
-        <v>0</v>
-      </c>
-      <c r="G10" s="8">
-        <v>0</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>0</v>
-      </c>
-      <c r="J10" s="8">
-        <v>0</v>
-      </c>
-      <c r="K10" s="8">
-        <v>0</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0</v>
-      </c>
-      <c r="M10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11" s="8">
-        <v>0</v>
-      </c>
-      <c r="D11" s="8">
-        <v>0</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="8">
-        <v>0</v>
-      </c>
-      <c r="G11" s="8">
-        <v>0</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1</v>
-      </c>
-      <c r="I11" s="8">
-        <v>0</v>
-      </c>
-      <c r="J11" s="8">
-        <v>0</v>
-      </c>
-      <c r="K11" s="8">
-        <v>0</v>
-      </c>
-      <c r="L11" s="8">
-        <v>0</v>
-      </c>
-      <c r="M11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>1</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0</v>
-      </c>
-      <c r="M12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B13" s="7">
         <v>0</v>
       </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
-        <v>0</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="8">
-        <v>0</v>
-      </c>
-      <c r="G13" s="8">
-        <v>0</v>
-      </c>
-      <c r="H13" s="8">
-        <v>1</v>
-      </c>
-      <c r="I13" s="8">
-        <v>0</v>
-      </c>
-      <c r="J13" s="8">
-        <v>0</v>
-      </c>
-      <c r="K13" s="8">
-        <v>0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="9">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
       </c>
-      <c r="C14" s="8">
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <v>1</v>
-      </c>
-      <c r="I14" s="8">
-        <v>0</v>
-      </c>
-      <c r="J14" s="8">
-        <v>0</v>
-      </c>
-      <c r="K14" s="8">
-        <v>0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0</v>
-      </c>
-      <c r="M14" s="9">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
       </c>
-      <c r="C15" s="8">
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
-        <v>0</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="8">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>0</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1</v>
-      </c>
-      <c r="I15" s="8">
-        <v>0</v>
-      </c>
-      <c r="J15" s="8">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0</v>
-      </c>
-      <c r="M15" s="9">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
       </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>0</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>0</v>
-      </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>0</v>
-      </c>
-      <c r="M16" s="9">
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B17" s="7">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
-        <v>0</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="8">
-        <v>0</v>
-      </c>
-      <c r="G17" s="8">
-        <v>0</v>
-      </c>
-      <c r="H17" s="8">
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <v>0</v>
-      </c>
-      <c r="J17" s="8">
-        <v>0</v>
-      </c>
-      <c r="K17" s="8">
-        <v>0</v>
-      </c>
-      <c r="L17" s="8">
-        <v>0</v>
-      </c>
-      <c r="M17" s="9">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
-        <v>0</v>
-      </c>
-      <c r="E18" s="8">
-        <v>0</v>
-      </c>
-      <c r="F18" s="8">
-        <v>0</v>
-      </c>
-      <c r="G18" s="8">
-        <v>0</v>
-      </c>
-      <c r="H18" s="8">
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <v>0</v>
-      </c>
-      <c r="J18" s="8">
-        <v>0</v>
-      </c>
-      <c r="K18" s="8">
-        <v>0</v>
-      </c>
-      <c r="L18" s="8">
-        <v>0</v>
-      </c>
-      <c r="M18" s="9">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="8">
-        <v>0</v>
-      </c>
-      <c r="C19" s="8">
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
-        <v>0</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="8">
-        <v>0</v>
-      </c>
-      <c r="G19" s="8">
-        <v>0</v>
-      </c>
-      <c r="H19" s="8">
-        <v>1</v>
-      </c>
-      <c r="I19" s="8">
-        <v>0</v>
-      </c>
-      <c r="J19" s="8">
-        <v>0</v>
-      </c>
-      <c r="K19" s="8">
-        <v>0</v>
-      </c>
-      <c r="L19" s="8">
-        <v>0</v>
-      </c>
-      <c r="M19" s="8">
+        <v>154</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="8">
-        <v>0</v>
-      </c>
-      <c r="C20" s="8">
-        <v>0</v>
-      </c>
-      <c r="D20" s="8">
-        <v>0</v>
-      </c>
-      <c r="E20" s="8">
-        <v>0</v>
-      </c>
-      <c r="F20" s="8">
-        <v>0</v>
-      </c>
-      <c r="G20" s="8">
-        <v>0</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1</v>
-      </c>
-      <c r="I20" s="8">
-        <v>0</v>
-      </c>
-      <c r="J20" s="8">
-        <v>0</v>
-      </c>
-      <c r="K20" s="8">
-        <v>0</v>
-      </c>
-      <c r="L20" s="8">
-        <v>0</v>
-      </c>
-      <c r="M20" s="8">
+        <v>84</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="8">
-        <v>0</v>
-      </c>
-      <c r="C21" s="8">
-        <v>0</v>
-      </c>
-      <c r="D21" s="8">
-        <v>0</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="8">
-        <v>0</v>
-      </c>
-      <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="8">
-        <v>1</v>
-      </c>
-      <c r="I21" s="8">
-        <v>0</v>
-      </c>
-      <c r="J21" s="8">
-        <v>0</v>
-      </c>
-      <c r="K21" s="8">
-        <v>0</v>
-      </c>
-      <c r="L21" s="8">
-        <v>0</v>
-      </c>
-      <c r="M21" s="8">
+        <v>155</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="8">
-        <v>0</v>
-      </c>
-      <c r="C22" s="8">
-        <v>0</v>
-      </c>
-      <c r="D22" s="8">
-        <v>0</v>
-      </c>
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
-      <c r="F22" s="8">
-        <v>0</v>
-      </c>
-      <c r="G22" s="8">
-        <v>0</v>
-      </c>
-      <c r="H22" s="8">
-        <v>1</v>
-      </c>
-      <c r="I22" s="8">
-        <v>0</v>
-      </c>
-      <c r="J22" s="8">
-        <v>0</v>
-      </c>
-      <c r="K22" s="8">
-        <v>0</v>
-      </c>
-      <c r="L22" s="8">
-        <v>0</v>
-      </c>
-      <c r="M22" s="8">
+        <v>85</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="8">
-        <v>0</v>
-      </c>
-      <c r="C23" s="8">
-        <v>0</v>
-      </c>
-      <c r="D23" s="8">
-        <v>0</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="8">
-        <v>0</v>
-      </c>
-      <c r="G23" s="8">
-        <v>0</v>
-      </c>
-      <c r="H23" s="8">
-        <v>1</v>
-      </c>
-      <c r="I23" s="8">
-        <v>0</v>
-      </c>
-      <c r="J23" s="8">
-        <v>0</v>
-      </c>
-      <c r="K23" s="8">
-        <v>0</v>
-      </c>
-      <c r="L23" s="8">
-        <v>0</v>
-      </c>
-      <c r="M23" s="8">
+        <v>86</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="8">
-        <v>0</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="8">
-        <v>0</v>
-      </c>
-      <c r="E24" s="8">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8">
-        <v>0</v>
-      </c>
-      <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
-        <v>1</v>
-      </c>
-      <c r="I24" s="8">
-        <v>0</v>
-      </c>
-      <c r="J24" s="8">
-        <v>0</v>
-      </c>
-      <c r="K24" s="8">
-        <v>0</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="8">
+        <v>87</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="8">
-        <v>0</v>
-      </c>
-      <c r="C25" s="8">
-        <v>0</v>
-      </c>
-      <c r="D25" s="8">
-        <v>0</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8">
-        <v>0</v>
-      </c>
-      <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="8">
-        <v>1</v>
-      </c>
-      <c r="I25" s="8">
-        <v>0</v>
-      </c>
-      <c r="J25" s="8">
-        <v>0</v>
-      </c>
-      <c r="K25" s="8">
-        <v>0</v>
-      </c>
-      <c r="L25" s="8">
-        <v>0</v>
-      </c>
-      <c r="M25" s="8">
+        <v>88</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="8">
-        <v>0</v>
-      </c>
-      <c r="C26" s="8">
-        <v>0</v>
-      </c>
-      <c r="D26" s="8">
-        <v>0</v>
-      </c>
-      <c r="E26" s="8">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8">
-        <v>0</v>
-      </c>
-      <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="8">
-        <v>1</v>
-      </c>
-      <c r="I26" s="8">
-        <v>0</v>
-      </c>
-      <c r="J26" s="8">
-        <v>0</v>
-      </c>
-      <c r="K26" s="8">
-        <v>0</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
-      <c r="M26" s="8">
+        <v>89</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B27" s="8">
-        <v>0</v>
-      </c>
-      <c r="C27" s="8">
-        <v>0</v>
-      </c>
-      <c r="D27" s="8">
-        <v>0</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8">
-        <v>0</v>
-      </c>
-      <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="8">
-        <v>1</v>
-      </c>
-      <c r="I27" s="8">
-        <v>0</v>
-      </c>
-      <c r="J27" s="8">
-        <v>0</v>
-      </c>
-      <c r="K27" s="8">
-        <v>0</v>
-      </c>
-      <c r="L27" s="8">
-        <v>0</v>
-      </c>
-      <c r="M27" s="8">
+        <v>90</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="8">
-        <v>0</v>
-      </c>
-      <c r="C28" s="8">
-        <v>0</v>
-      </c>
-      <c r="D28" s="8">
-        <v>0</v>
-      </c>
-      <c r="E28" s="8">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8">
-        <v>0</v>
-      </c>
-      <c r="G28" s="8">
-        <v>0</v>
-      </c>
-      <c r="H28" s="8">
-        <v>1</v>
-      </c>
-      <c r="I28" s="8">
-        <v>0</v>
-      </c>
-      <c r="J28" s="8">
-        <v>0</v>
-      </c>
-      <c r="K28" s="8">
-        <v>0</v>
-      </c>
-      <c r="L28" s="8">
-        <v>0</v>
-      </c>
-      <c r="M28" s="8">
+        <v>91</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B29" s="8">
-        <v>0</v>
-      </c>
-      <c r="C29" s="8">
-        <v>0</v>
-      </c>
-      <c r="D29" s="8">
-        <v>0</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8">
-        <v>0</v>
-      </c>
-      <c r="G29" s="8">
-        <v>0</v>
-      </c>
-      <c r="H29" s="8">
-        <v>1</v>
-      </c>
-      <c r="I29" s="8">
-        <v>0</v>
-      </c>
-      <c r="J29" s="8">
-        <v>0</v>
-      </c>
-      <c r="K29" s="8">
-        <v>0</v>
-      </c>
-      <c r="L29" s="8">
-        <v>0</v>
-      </c>
-      <c r="M29" s="8">
+        <v>92</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="8">
-        <v>0</v>
-      </c>
-      <c r="C30" s="8">
-        <v>0</v>
-      </c>
-      <c r="D30" s="8">
-        <v>0</v>
-      </c>
-      <c r="E30" s="8">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8">
-        <v>0</v>
-      </c>
-      <c r="G30" s="8">
-        <v>0</v>
-      </c>
-      <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" s="8">
-        <v>0</v>
-      </c>
-      <c r="J30" s="8">
-        <v>0</v>
-      </c>
-      <c r="K30" s="8">
-        <v>0</v>
-      </c>
-      <c r="L30" s="8">
-        <v>0</v>
-      </c>
-      <c r="M30" s="8">
+        <v>93</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B31" s="8">
-        <v>0</v>
-      </c>
-      <c r="C31" s="8">
-        <v>0</v>
-      </c>
-      <c r="D31" s="8">
-        <v>0</v>
-      </c>
-      <c r="E31" s="8">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8">
-        <v>0</v>
-      </c>
-      <c r="G31" s="8">
-        <v>0</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1</v>
-      </c>
-      <c r="I31" s="8">
-        <v>0</v>
-      </c>
-      <c r="J31" s="8">
-        <v>0</v>
-      </c>
-      <c r="K31" s="8">
-        <v>0</v>
-      </c>
-      <c r="L31" s="8">
-        <v>0</v>
-      </c>
-      <c r="M31" s="8">
+        <v>94</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" s="8">
-        <v>0</v>
-      </c>
-      <c r="C32" s="8">
-        <v>0</v>
-      </c>
-      <c r="D32" s="8">
-        <v>0</v>
-      </c>
-      <c r="E32" s="8">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8">
-        <v>0</v>
-      </c>
-      <c r="G32" s="8">
-        <v>0</v>
-      </c>
-      <c r="H32" s="8">
-        <v>1</v>
-      </c>
-      <c r="I32" s="8">
-        <v>0</v>
-      </c>
-      <c r="J32" s="8">
-        <v>0</v>
-      </c>
-      <c r="K32" s="8">
-        <v>0</v>
-      </c>
-      <c r="L32" s="8">
-        <v>0</v>
-      </c>
-      <c r="M32" s="8">
+        <v>95</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" s="8">
-        <v>0</v>
-      </c>
-      <c r="C33" s="8">
-        <v>0</v>
-      </c>
-      <c r="D33" s="8">
-        <v>0</v>
-      </c>
-      <c r="E33" s="8">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8">
-        <v>0</v>
-      </c>
-      <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="8">
-        <v>0</v>
-      </c>
-      <c r="J33" s="8">
-        <v>0</v>
-      </c>
-      <c r="K33" s="8">
-        <v>0</v>
-      </c>
-      <c r="L33" s="8">
-        <v>0</v>
-      </c>
-      <c r="M33" s="8">
+        <v>96</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B34" s="8">
-        <v>0</v>
-      </c>
-      <c r="C34" s="8">
-        <v>0</v>
-      </c>
-      <c r="D34" s="8">
-        <v>0</v>
-      </c>
-      <c r="E34" s="8">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8">
-        <v>0</v>
-      </c>
-      <c r="G34" s="8">
-        <v>0</v>
-      </c>
-      <c r="H34" s="8">
-        <v>1</v>
-      </c>
-      <c r="I34" s="8">
-        <v>0</v>
-      </c>
-      <c r="J34" s="8">
-        <v>0</v>
-      </c>
-      <c r="K34" s="8">
-        <v>0</v>
-      </c>
-      <c r="L34" s="8">
-        <v>0</v>
-      </c>
-      <c r="M34" s="8">
+        <v>97</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="8">
-        <v>0</v>
-      </c>
-      <c r="C35" s="8">
-        <v>0</v>
-      </c>
-      <c r="D35" s="8">
-        <v>0</v>
-      </c>
-      <c r="E35" s="8">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8">
-        <v>0</v>
-      </c>
-      <c r="G35" s="8">
-        <v>0</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1</v>
-      </c>
-      <c r="I35" s="8">
-        <v>0</v>
-      </c>
-      <c r="J35" s="8">
-        <v>0</v>
-      </c>
-      <c r="K35" s="8">
-        <v>0</v>
-      </c>
-      <c r="L35" s="8">
-        <v>0</v>
-      </c>
-      <c r="M35" s="8">
+        <v>98</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="8">
-        <v>1</v>
-      </c>
-      <c r="C36" s="8">
-        <v>0</v>
-      </c>
-      <c r="D36" s="8">
-        <v>0</v>
-      </c>
-      <c r="E36" s="8">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8">
-        <v>0</v>
-      </c>
-      <c r="G36" s="8">
-        <v>0</v>
-      </c>
-      <c r="H36" s="8">
-        <v>0</v>
-      </c>
-      <c r="I36" s="8">
-        <v>0</v>
-      </c>
-      <c r="J36" s="8">
-        <v>0</v>
-      </c>
-      <c r="K36" s="8">
-        <v>0</v>
-      </c>
-      <c r="L36" s="8">
-        <v>0</v>
-      </c>
-      <c r="M36" s="8">
+        <v>99</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B37" s="8">
-        <v>1</v>
-      </c>
-      <c r="C37" s="8">
-        <v>0</v>
-      </c>
-      <c r="D37" s="8">
-        <v>0</v>
-      </c>
-      <c r="E37" s="8">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8">
-        <v>0</v>
-      </c>
-      <c r="G37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="8">
-        <v>0</v>
-      </c>
-      <c r="I37" s="8">
-        <v>0</v>
-      </c>
-      <c r="J37" s="8">
-        <v>0</v>
-      </c>
-      <c r="K37" s="8">
-        <v>0</v>
-      </c>
-      <c r="L37" s="8">
-        <v>0</v>
-      </c>
-      <c r="M37" s="8">
+        <v>100</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B38" s="8">
-        <v>1</v>
-      </c>
-      <c r="C38" s="8">
-        <v>0</v>
-      </c>
-      <c r="D38" s="8">
-        <v>0</v>
-      </c>
-      <c r="E38" s="8">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8">
-        <v>0</v>
-      </c>
-      <c r="G38" s="8">
-        <v>0</v>
-      </c>
-      <c r="H38" s="8">
-        <v>0</v>
-      </c>
-      <c r="I38" s="8">
-        <v>0</v>
-      </c>
-      <c r="J38" s="8">
-        <v>0</v>
-      </c>
-      <c r="K38" s="8">
-        <v>0</v>
-      </c>
-      <c r="L38" s="8">
-        <v>0</v>
-      </c>
-      <c r="M38" s="8">
+        <v>101</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="8">
-        <v>0</v>
-      </c>
-      <c r="C39" s="8">
-        <v>0</v>
-      </c>
-      <c r="D39" s="8">
-        <v>0</v>
-      </c>
-      <c r="E39" s="8">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8">
-        <v>0</v>
-      </c>
-      <c r="G39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8">
-        <v>1</v>
-      </c>
-      <c r="I39" s="8">
-        <v>0</v>
-      </c>
-      <c r="J39" s="8">
-        <v>0</v>
-      </c>
-      <c r="K39" s="8">
-        <v>0</v>
-      </c>
-      <c r="L39" s="8">
-        <v>0</v>
-      </c>
-      <c r="M39" s="8">
+        <v>102</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B40" s="8">
-        <v>0</v>
-      </c>
-      <c r="C40" s="8">
-        <v>0</v>
-      </c>
-      <c r="D40" s="8">
-        <v>0</v>
-      </c>
-      <c r="E40" s="8">
-        <v>0</v>
-      </c>
-      <c r="F40" s="8">
-        <v>0</v>
-      </c>
-      <c r="G40" s="8">
-        <v>0</v>
-      </c>
-      <c r="H40" s="8">
-        <v>1</v>
-      </c>
-      <c r="I40" s="8">
-        <v>0</v>
-      </c>
-      <c r="J40" s="8">
-        <v>0</v>
-      </c>
-      <c r="K40" s="8">
-        <v>0</v>
-      </c>
-      <c r="L40" s="8">
-        <v>0</v>
-      </c>
-      <c r="M40" s="8">
+        <v>103</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B41" s="8">
-        <v>0</v>
-      </c>
-      <c r="C41" s="8">
-        <v>0</v>
-      </c>
-      <c r="D41" s="8">
-        <v>0</v>
-      </c>
-      <c r="E41" s="8">
-        <v>0</v>
-      </c>
-      <c r="F41" s="8">
-        <v>0</v>
-      </c>
-      <c r="G41" s="8">
-        <v>0</v>
-      </c>
-      <c r="H41" s="8">
-        <v>1</v>
-      </c>
-      <c r="I41" s="8">
-        <v>0</v>
-      </c>
-      <c r="J41" s="8">
-        <v>0</v>
-      </c>
-      <c r="K41" s="8">
-        <v>0</v>
-      </c>
-      <c r="L41" s="8">
-        <v>0</v>
-      </c>
-      <c r="M41" s="8">
+        <v>104</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B42" s="8">
-        <v>0</v>
-      </c>
-      <c r="C42" s="8">
-        <v>0</v>
-      </c>
-      <c r="D42" s="8">
-        <v>0</v>
-      </c>
-      <c r="E42" s="8">
-        <v>0</v>
-      </c>
-      <c r="F42" s="8">
-        <v>0</v>
-      </c>
-      <c r="G42" s="8">
-        <v>0</v>
-      </c>
-      <c r="H42" s="8">
-        <v>1</v>
-      </c>
-      <c r="I42" s="8">
-        <v>0</v>
-      </c>
-      <c r="J42" s="8">
-        <v>0</v>
-      </c>
-      <c r="K42" s="8">
-        <v>0</v>
-      </c>
-      <c r="L42" s="8">
-        <v>0</v>
-      </c>
-      <c r="M42" s="8">
+        <v>105</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B43" s="8">
-        <v>0</v>
-      </c>
-      <c r="C43" s="8">
-        <v>0</v>
-      </c>
-      <c r="D43" s="8">
-        <v>0</v>
-      </c>
-      <c r="E43" s="8">
-        <v>0</v>
-      </c>
-      <c r="F43" s="8">
-        <v>0</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-      <c r="H43" s="8">
-        <v>1</v>
-      </c>
-      <c r="I43" s="8">
-        <v>0</v>
-      </c>
-      <c r="J43" s="8">
-        <v>0</v>
-      </c>
-      <c r="K43" s="8">
-        <v>0</v>
-      </c>
-      <c r="L43" s="8">
-        <v>0</v>
-      </c>
-      <c r="M43" s="8">
+        <v>106</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B44" s="8">
-        <v>0</v>
-      </c>
-      <c r="C44" s="8">
-        <v>0</v>
-      </c>
-      <c r="D44" s="8">
-        <v>0</v>
-      </c>
-      <c r="E44" s="8">
-        <v>0</v>
-      </c>
-      <c r="F44" s="8">
-        <v>0</v>
-      </c>
-      <c r="G44" s="8">
-        <v>0</v>
-      </c>
-      <c r="H44" s="8">
-        <v>1</v>
-      </c>
-      <c r="I44" s="8">
-        <v>0</v>
-      </c>
-      <c r="J44" s="8">
-        <v>0</v>
-      </c>
-      <c r="K44" s="8">
-        <v>0</v>
-      </c>
-      <c r="L44" s="8">
-        <v>0</v>
-      </c>
-      <c r="M44" s="8">
+        <v>156</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B45" s="8">
-        <v>0</v>
-      </c>
-      <c r="C45" s="8">
-        <v>0</v>
-      </c>
-      <c r="D45" s="8">
-        <v>0</v>
-      </c>
-      <c r="E45" s="8">
-        <v>0</v>
-      </c>
-      <c r="F45" s="8">
-        <v>0</v>
-      </c>
-      <c r="G45" s="8">
-        <v>0</v>
-      </c>
-      <c r="H45" s="8">
-        <v>1</v>
-      </c>
-      <c r="I45" s="8">
-        <v>0</v>
-      </c>
-      <c r="J45" s="8">
-        <v>0</v>
-      </c>
-      <c r="K45" s="8">
-        <v>0</v>
-      </c>
-      <c r="L45" s="8">
-        <v>0</v>
-      </c>
-      <c r="M45" s="8">
+        <v>107</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="8">
-        <v>0</v>
-      </c>
-      <c r="C46" s="8">
-        <v>0</v>
-      </c>
-      <c r="D46" s="8">
-        <v>0</v>
-      </c>
-      <c r="E46" s="8">
-        <v>0</v>
-      </c>
-      <c r="F46" s="8">
-        <v>0</v>
-      </c>
-      <c r="G46" s="8">
-        <v>0</v>
-      </c>
-      <c r="H46" s="8">
-        <v>1</v>
-      </c>
-      <c r="I46" s="8">
-        <v>0</v>
-      </c>
-      <c r="J46" s="8">
-        <v>0</v>
-      </c>
-      <c r="K46" s="8">
-        <v>0</v>
-      </c>
-      <c r="L46" s="8">
-        <v>0</v>
-      </c>
-      <c r="M46" s="8">
+        <v>108</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="8">
-        <v>0</v>
-      </c>
-      <c r="C47" s="8">
-        <v>0</v>
-      </c>
-      <c r="D47" s="8">
-        <v>0</v>
-      </c>
-      <c r="E47" s="8">
-        <v>0</v>
-      </c>
-      <c r="F47" s="8">
-        <v>0</v>
-      </c>
-      <c r="G47" s="8">
-        <v>0</v>
-      </c>
-      <c r="H47" s="8">
-        <v>0</v>
-      </c>
-      <c r="I47" s="8">
-        <v>1</v>
-      </c>
-      <c r="J47" s="8">
-        <v>0</v>
-      </c>
-      <c r="K47" s="8">
-        <v>0</v>
-      </c>
-      <c r="L47" s="8">
-        <v>0</v>
-      </c>
-      <c r="M47" s="8">
+        <v>109</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="8">
-        <v>0</v>
-      </c>
-      <c r="C48" s="8">
-        <v>0</v>
-      </c>
-      <c r="D48" s="8">
-        <v>0</v>
-      </c>
-      <c r="E48" s="8">
-        <v>0</v>
-      </c>
-      <c r="F48" s="8">
-        <v>0</v>
-      </c>
-      <c r="G48" s="8">
-        <v>0</v>
-      </c>
-      <c r="H48" s="8">
-        <v>0</v>
-      </c>
-      <c r="I48" s="8">
-        <v>1</v>
-      </c>
-      <c r="J48" s="8">
-        <v>0</v>
-      </c>
-      <c r="K48" s="8">
-        <v>0</v>
-      </c>
-      <c r="L48" s="8">
-        <v>0</v>
-      </c>
-      <c r="M48" s="8">
+        <v>110</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="8">
-        <v>0</v>
-      </c>
-      <c r="C49" s="8">
-        <v>0</v>
-      </c>
-      <c r="D49" s="8">
-        <v>1</v>
-      </c>
-      <c r="E49" s="8">
-        <v>0</v>
-      </c>
-      <c r="F49" s="8">
-        <v>0</v>
-      </c>
-      <c r="G49" s="8">
-        <v>0</v>
-      </c>
-      <c r="H49" s="8">
-        <v>0</v>
-      </c>
-      <c r="I49" s="8">
-        <v>0</v>
-      </c>
-      <c r="J49" s="8">
-        <v>0</v>
-      </c>
-      <c r="K49" s="8">
-        <v>0</v>
-      </c>
-      <c r="L49" s="8">
-        <v>0</v>
-      </c>
-      <c r="M49" s="8">
+        <v>111</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="8">
-        <v>0</v>
-      </c>
-      <c r="C50" s="8">
-        <v>0</v>
-      </c>
-      <c r="D50" s="8">
-        <v>0</v>
-      </c>
-      <c r="E50" s="8">
-        <v>0</v>
-      </c>
-      <c r="F50" s="8">
-        <v>0</v>
-      </c>
-      <c r="G50" s="8">
-        <v>1</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0</v>
-      </c>
-      <c r="I50" s="8">
-        <v>0</v>
-      </c>
-      <c r="J50" s="8">
-        <v>0</v>
-      </c>
-      <c r="K50" s="8">
-        <v>0</v>
-      </c>
-      <c r="L50" s="8">
-        <v>0</v>
-      </c>
-      <c r="M50" s="8">
+        <v>112</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="8">
-        <v>0</v>
-      </c>
-      <c r="C51" s="8">
-        <v>0</v>
-      </c>
-      <c r="D51" s="8">
-        <v>0</v>
-      </c>
-      <c r="E51" s="8">
-        <v>0</v>
-      </c>
-      <c r="F51" s="8">
-        <v>0</v>
-      </c>
-      <c r="G51" s="8">
-        <v>0</v>
-      </c>
-      <c r="H51" s="8">
-        <v>0</v>
-      </c>
-      <c r="I51" s="8">
-        <v>1</v>
-      </c>
-      <c r="J51" s="8">
-        <v>0</v>
-      </c>
-      <c r="K51" s="8">
-        <v>0</v>
-      </c>
-      <c r="L51" s="8">
-        <v>0</v>
-      </c>
-      <c r="M51" s="8">
+        <v>113</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B52" s="8">
-        <v>0</v>
-      </c>
-      <c r="C52" s="8">
-        <v>0</v>
-      </c>
-      <c r="D52" s="8">
-        <v>0</v>
-      </c>
-      <c r="E52" s="8">
-        <v>0</v>
-      </c>
-      <c r="F52" s="8">
-        <v>0</v>
-      </c>
-      <c r="G52" s="8">
-        <v>0</v>
-      </c>
-      <c r="H52" s="8">
-        <v>0</v>
-      </c>
-      <c r="I52" s="8">
-        <v>1</v>
-      </c>
-      <c r="J52" s="8">
-        <v>0</v>
-      </c>
-      <c r="K52" s="8">
-        <v>0</v>
-      </c>
-      <c r="L52" s="8">
-        <v>0</v>
-      </c>
-      <c r="M52" s="8">
+        <v>114</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
         <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="8">
-        <v>0</v>
-      </c>
-      <c r="C53" s="8">
-        <v>0</v>
-      </c>
-      <c r="D53" s="8">
-        <v>0</v>
-      </c>
-      <c r="E53" s="8">
-        <v>0</v>
-      </c>
-      <c r="F53" s="8">
-        <v>0</v>
-      </c>
-      <c r="G53" s="8">
-        <v>0</v>
-      </c>
-      <c r="H53" s="8">
-        <v>1</v>
-      </c>
-      <c r="I53" s="8">
-        <v>0</v>
-      </c>
-      <c r="J53" s="8">
-        <v>0</v>
-      </c>
-      <c r="K53" s="8">
-        <v>0</v>
-      </c>
-      <c r="L53" s="8">
-        <v>0</v>
-      </c>
-      <c r="M53" s="8">
+        <v>115</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="B54" s="8">
-        <v>0</v>
-      </c>
-      <c r="C54" s="8">
-        <v>0</v>
-      </c>
-      <c r="D54" s="8">
-        <v>0</v>
-      </c>
-      <c r="E54" s="8">
-        <v>0</v>
-      </c>
-      <c r="F54" s="8">
-        <v>1</v>
-      </c>
-      <c r="G54" s="8">
-        <v>0</v>
-      </c>
-      <c r="H54" s="8">
-        <v>0</v>
-      </c>
-      <c r="I54" s="8">
-        <v>0</v>
-      </c>
-      <c r="J54" s="8">
-        <v>0</v>
-      </c>
-      <c r="K54" s="8">
-        <v>0</v>
-      </c>
-      <c r="L54" s="8">
-        <v>0</v>
-      </c>
-      <c r="M54" s="8">
+        <v>28</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B55" s="8">
-        <v>0</v>
-      </c>
-      <c r="C55" s="8">
-        <v>0</v>
-      </c>
-      <c r="D55" s="8">
-        <v>0</v>
-      </c>
-      <c r="E55" s="8">
-        <v>0</v>
-      </c>
-      <c r="F55" s="8">
-        <v>1</v>
-      </c>
-      <c r="G55" s="8">
-        <v>0</v>
-      </c>
-      <c r="H55" s="8">
-        <v>0</v>
-      </c>
-      <c r="I55" s="8">
-        <v>0</v>
-      </c>
-      <c r="J55" s="8">
-        <v>0</v>
-      </c>
-      <c r="K55" s="8">
-        <v>0</v>
-      </c>
-      <c r="L55" s="8">
-        <v>0</v>
-      </c>
-      <c r="M55" s="8">
+        <v>116</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B56" s="8">
-        <v>0</v>
-      </c>
-      <c r="C56" s="8">
-        <v>0</v>
-      </c>
-      <c r="D56" s="8">
-        <v>0</v>
-      </c>
-      <c r="E56" s="8">
-        <v>0</v>
-      </c>
-      <c r="F56" s="8">
-        <v>1</v>
-      </c>
-      <c r="G56" s="8">
-        <v>0</v>
-      </c>
-      <c r="H56" s="8">
-        <v>0</v>
-      </c>
-      <c r="I56" s="8">
-        <v>0</v>
-      </c>
-      <c r="J56" s="8">
-        <v>0</v>
-      </c>
-      <c r="K56" s="8">
-        <v>0</v>
-      </c>
-      <c r="L56" s="8">
-        <v>0</v>
-      </c>
-      <c r="M56" s="8">
+        <v>117</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B57" s="8">
-        <v>0</v>
-      </c>
-      <c r="C57" s="8">
-        <v>0</v>
-      </c>
-      <c r="D57" s="8">
-        <v>0</v>
-      </c>
-      <c r="E57" s="8">
-        <v>0</v>
-      </c>
-      <c r="F57" s="8">
-        <v>1</v>
-      </c>
-      <c r="G57" s="8">
-        <v>0</v>
-      </c>
-      <c r="H57" s="8">
-        <v>0</v>
-      </c>
-      <c r="I57" s="8">
-        <v>0</v>
-      </c>
-      <c r="J57" s="8">
-        <v>0</v>
-      </c>
-      <c r="K57" s="8">
-        <v>0</v>
-      </c>
-      <c r="L57" s="8">
-        <v>0</v>
-      </c>
-      <c r="M57" s="8">
+        <v>118</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B58" s="8">
-        <v>0</v>
-      </c>
-      <c r="C58" s="8">
-        <v>0</v>
-      </c>
-      <c r="D58" s="8">
-        <v>0</v>
-      </c>
-      <c r="E58" s="8">
-        <v>0</v>
-      </c>
-      <c r="F58" s="8">
-        <v>1</v>
-      </c>
-      <c r="G58" s="8">
-        <v>0</v>
-      </c>
-      <c r="H58" s="8">
-        <v>0</v>
-      </c>
-      <c r="I58" s="8">
-        <v>0</v>
-      </c>
-      <c r="J58" s="8">
-        <v>0</v>
-      </c>
-      <c r="K58" s="8">
-        <v>0</v>
-      </c>
-      <c r="L58" s="8">
-        <v>0</v>
-      </c>
-      <c r="M58" s="8">
+        <v>18</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="8">
-        <v>0</v>
-      </c>
-      <c r="C59" s="8">
-        <v>0</v>
-      </c>
-      <c r="D59" s="8">
-        <v>0</v>
-      </c>
-      <c r="E59" s="8">
-        <v>0</v>
-      </c>
-      <c r="F59" s="8">
-        <v>1</v>
-      </c>
-      <c r="G59" s="8">
-        <v>0</v>
-      </c>
-      <c r="H59" s="8">
-        <v>0</v>
-      </c>
-      <c r="I59" s="8">
-        <v>0</v>
-      </c>
-      <c r="J59" s="8">
-        <v>0</v>
-      </c>
-      <c r="K59" s="8">
-        <v>0</v>
-      </c>
-      <c r="L59" s="8">
-        <v>0</v>
-      </c>
-      <c r="M59" s="8">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B60" s="8">
-        <v>0</v>
-      </c>
-      <c r="C60" s="8">
-        <v>0</v>
-      </c>
-      <c r="D60" s="8">
-        <v>0</v>
-      </c>
-      <c r="E60" s="8">
-        <v>0</v>
-      </c>
-      <c r="F60" s="8">
-        <v>1</v>
-      </c>
-      <c r="G60" s="8">
-        <v>0</v>
-      </c>
-      <c r="H60" s="8">
-        <v>0</v>
-      </c>
-      <c r="I60" s="8">
-        <v>0</v>
-      </c>
-      <c r="J60" s="8">
-        <v>0</v>
-      </c>
-      <c r="K60" s="8">
-        <v>0</v>
-      </c>
-      <c r="L60" s="8">
-        <v>0</v>
-      </c>
-      <c r="M60" s="8">
+        <v>119</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B61" s="8">
-        <v>0</v>
-      </c>
-      <c r="C61" s="8">
-        <v>0</v>
-      </c>
-      <c r="D61" s="8">
-        <v>0</v>
-      </c>
-      <c r="E61" s="8">
-        <v>0</v>
-      </c>
-      <c r="F61" s="8">
-        <v>1</v>
-      </c>
-      <c r="G61" s="8">
-        <v>0</v>
-      </c>
-      <c r="H61" s="8">
-        <v>0</v>
-      </c>
-      <c r="I61" s="8">
-        <v>0</v>
-      </c>
-      <c r="J61" s="8">
-        <v>0</v>
-      </c>
-      <c r="K61" s="8">
-        <v>0</v>
-      </c>
-      <c r="L61" s="8">
-        <v>0</v>
-      </c>
-      <c r="M61" s="8">
+        <v>120</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="8">
-        <v>0</v>
-      </c>
-      <c r="C62" s="8">
-        <v>0</v>
-      </c>
-      <c r="D62" s="8">
-        <v>0</v>
-      </c>
-      <c r="E62" s="8">
-        <v>0</v>
-      </c>
-      <c r="F62" s="8">
-        <v>1</v>
-      </c>
-      <c r="G62" s="8">
-        <v>0</v>
-      </c>
-      <c r="H62" s="8">
-        <v>0</v>
-      </c>
-      <c r="I62" s="8">
-        <v>0</v>
-      </c>
-      <c r="J62" s="8">
-        <v>0</v>
-      </c>
-      <c r="K62" s="8">
-        <v>0</v>
-      </c>
-      <c r="L62" s="8">
-        <v>0</v>
-      </c>
-      <c r="M62" s="8">
+        <v>121</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="8">
-        <v>0</v>
-      </c>
-      <c r="C63" s="8">
-        <v>0</v>
-      </c>
-      <c r="D63" s="8">
-        <v>0</v>
-      </c>
-      <c r="E63" s="8">
-        <v>0</v>
-      </c>
-      <c r="F63" s="8">
-        <v>1</v>
-      </c>
-      <c r="G63" s="8">
-        <v>0</v>
-      </c>
-      <c r="H63" s="8">
-        <v>0</v>
-      </c>
-      <c r="I63" s="8">
-        <v>0</v>
-      </c>
-      <c r="J63" s="8">
-        <v>0</v>
-      </c>
-      <c r="K63" s="8">
-        <v>0</v>
-      </c>
-      <c r="L63" s="8">
-        <v>0</v>
-      </c>
-      <c r="M63" s="8">
+        <v>122</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B64" s="8">
-        <v>0</v>
-      </c>
-      <c r="C64" s="8">
-        <v>0</v>
-      </c>
-      <c r="D64" s="8">
-        <v>0</v>
-      </c>
-      <c r="E64" s="8">
-        <v>0</v>
-      </c>
-      <c r="F64" s="8">
-        <v>0</v>
-      </c>
-      <c r="G64" s="8">
-        <v>1</v>
-      </c>
-      <c r="H64" s="8">
-        <v>0</v>
-      </c>
-      <c r="I64" s="8">
-        <v>0</v>
-      </c>
-      <c r="J64" s="8">
-        <v>0</v>
-      </c>
-      <c r="K64" s="8">
-        <v>0</v>
-      </c>
-      <c r="L64" s="8">
-        <v>0</v>
-      </c>
-      <c r="M64" s="8">
+        <v>123</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B65" s="8">
-        <v>0</v>
-      </c>
-      <c r="C65" s="8">
-        <v>0</v>
-      </c>
-      <c r="D65" s="8">
-        <v>0</v>
-      </c>
-      <c r="E65" s="8">
-        <v>0</v>
-      </c>
-      <c r="F65" s="8">
-        <v>1</v>
-      </c>
-      <c r="G65" s="8">
-        <v>0</v>
-      </c>
-      <c r="H65" s="8">
-        <v>0</v>
-      </c>
-      <c r="I65" s="8">
-        <v>0</v>
-      </c>
-      <c r="J65" s="8">
-        <v>0</v>
-      </c>
-      <c r="K65" s="8">
-        <v>0</v>
-      </c>
-      <c r="L65" s="8">
-        <v>0</v>
-      </c>
-      <c r="M65" s="8">
+        <v>124</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B66" s="8">
-        <v>0</v>
-      </c>
-      <c r="C66" s="8">
-        <v>0</v>
-      </c>
-      <c r="D66" s="8">
-        <v>0</v>
-      </c>
-      <c r="E66" s="8">
-        <v>1</v>
-      </c>
-      <c r="F66" s="8">
-        <v>0</v>
-      </c>
-      <c r="G66" s="8">
-        <v>0</v>
-      </c>
-      <c r="H66" s="8">
-        <v>0</v>
-      </c>
-      <c r="I66" s="8">
-        <v>0</v>
-      </c>
-      <c r="J66" s="8">
-        <v>0</v>
-      </c>
-      <c r="K66" s="8">
-        <v>0</v>
-      </c>
-      <c r="L66" s="8">
-        <v>0</v>
-      </c>
-      <c r="M66" s="8">
+        <v>125</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B67" s="8">
-        <v>0</v>
-      </c>
-      <c r="C67" s="8">
-        <v>0</v>
-      </c>
-      <c r="D67" s="8">
-        <v>0</v>
-      </c>
-      <c r="E67" s="8">
-        <v>0</v>
-      </c>
-      <c r="F67" s="8">
-        <v>0</v>
-      </c>
-      <c r="G67" s="8">
-        <v>0</v>
-      </c>
-      <c r="H67" s="8">
-        <v>0</v>
-      </c>
-      <c r="I67" s="8">
-        <v>0</v>
-      </c>
-      <c r="J67" s="8">
-        <v>0</v>
-      </c>
-      <c r="K67" s="8">
-        <v>0</v>
-      </c>
-      <c r="L67" s="8">
-        <v>0</v>
-      </c>
-      <c r="M67" s="8">
-        <v>1</v>
+        <v>126</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B68" s="8">
-        <v>0</v>
-      </c>
-      <c r="C68" s="8">
-        <v>0</v>
-      </c>
-      <c r="D68" s="8">
-        <v>0</v>
-      </c>
-      <c r="E68" s="8">
-        <v>0</v>
-      </c>
-      <c r="F68" s="8">
-        <v>0</v>
-      </c>
-      <c r="G68" s="8">
-        <v>0</v>
-      </c>
-      <c r="H68" s="8">
-        <v>0</v>
-      </c>
-      <c r="I68" s="8">
-        <v>0</v>
-      </c>
-      <c r="J68" s="8">
-        <v>0</v>
-      </c>
-      <c r="K68" s="8">
-        <v>0</v>
-      </c>
-      <c r="L68" s="8">
-        <v>0</v>
-      </c>
-      <c r="M68" s="8">
-        <v>1</v>
+        <v>127</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B69" s="8">
-        <v>0</v>
-      </c>
-      <c r="C69" s="8">
-        <v>0</v>
-      </c>
-      <c r="D69" s="8">
-        <v>0</v>
-      </c>
-      <c r="E69" s="8">
-        <v>0</v>
-      </c>
-      <c r="F69" s="8">
-        <v>0</v>
-      </c>
-      <c r="G69" s="8">
-        <v>0</v>
-      </c>
-      <c r="H69" s="8">
-        <v>0</v>
-      </c>
-      <c r="I69" s="8">
-        <v>0</v>
-      </c>
-      <c r="J69" s="8">
-        <v>1</v>
-      </c>
-      <c r="K69" s="8">
-        <v>0</v>
-      </c>
-      <c r="L69" s="8">
-        <v>0</v>
-      </c>
-      <c r="M69" s="8">
+        <v>128</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="8">
-        <v>0</v>
-      </c>
-      <c r="C70" s="8">
-        <v>1</v>
-      </c>
-      <c r="D70" s="8">
-        <v>0</v>
-      </c>
-      <c r="E70" s="8">
-        <v>0</v>
-      </c>
-      <c r="F70" s="8">
-        <v>0</v>
-      </c>
-      <c r="G70" s="8">
-        <v>0</v>
-      </c>
-      <c r="H70" s="8">
-        <v>0</v>
-      </c>
-      <c r="I70" s="8">
-        <v>0</v>
-      </c>
-      <c r="J70" s="8">
-        <v>0</v>
-      </c>
-      <c r="K70" s="8">
-        <v>0</v>
-      </c>
-      <c r="L70" s="8">
-        <v>0</v>
-      </c>
-      <c r="M70" s="8">
+        <v>129</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B71" s="8">
-        <v>0</v>
-      </c>
-      <c r="C71" s="8">
-        <v>0</v>
-      </c>
-      <c r="D71" s="8">
-        <v>0</v>
-      </c>
-      <c r="E71" s="8">
-        <v>0</v>
-      </c>
-      <c r="F71" s="8">
-        <v>1</v>
-      </c>
-      <c r="G71" s="8">
-        <v>0</v>
-      </c>
-      <c r="H71" s="8">
-        <v>0</v>
-      </c>
-      <c r="I71" s="8">
-        <v>0</v>
-      </c>
-      <c r="J71" s="8">
-        <v>0</v>
-      </c>
-      <c r="K71" s="8">
-        <v>0</v>
-      </c>
-      <c r="L71" s="8">
-        <v>0</v>
-      </c>
-      <c r="M71" s="8">
+        <v>130</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B72" s="8">
-        <v>0</v>
-      </c>
-      <c r="C72" s="8">
-        <v>0</v>
-      </c>
-      <c r="D72" s="8">
-        <v>0</v>
-      </c>
-      <c r="E72" s="8">
-        <v>0</v>
-      </c>
-      <c r="F72" s="8">
-        <v>1</v>
-      </c>
-      <c r="G72" s="8">
-        <v>0</v>
-      </c>
-      <c r="H72" s="8">
-        <v>0</v>
-      </c>
-      <c r="I72" s="8">
-        <v>0</v>
-      </c>
-      <c r="J72" s="8">
-        <v>0</v>
-      </c>
-      <c r="K72" s="8">
-        <v>0</v>
-      </c>
-      <c r="L72" s="8">
-        <v>0</v>
-      </c>
-      <c r="M72" s="8">
+        <v>131</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B73" s="8">
-        <v>0</v>
-      </c>
-      <c r="C73" s="8">
-        <v>0</v>
-      </c>
-      <c r="D73" s="8">
-        <v>0</v>
-      </c>
-      <c r="E73" s="8">
-        <v>0</v>
-      </c>
-      <c r="F73" s="8">
-        <v>0</v>
-      </c>
-      <c r="G73" s="8">
-        <v>0</v>
-      </c>
-      <c r="H73" s="8">
-        <v>0</v>
-      </c>
-      <c r="I73" s="8">
-        <v>0</v>
-      </c>
-      <c r="J73" s="8">
-        <v>0</v>
-      </c>
-      <c r="K73" s="8">
-        <v>0</v>
-      </c>
-      <c r="L73" s="8">
-        <v>1</v>
-      </c>
-      <c r="M73" s="8">
+        <v>132</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B74" s="8">
-        <v>0</v>
-      </c>
-      <c r="C74" s="8">
-        <v>0</v>
-      </c>
-      <c r="D74" s="8">
-        <v>0</v>
-      </c>
-      <c r="E74" s="8">
-        <v>0</v>
-      </c>
-      <c r="F74" s="8">
-        <v>0</v>
-      </c>
-      <c r="G74" s="8">
-        <v>0</v>
-      </c>
-      <c r="H74" s="8">
-        <v>0</v>
-      </c>
-      <c r="I74" s="8">
-        <v>0</v>
-      </c>
-      <c r="J74" s="8">
-        <v>0</v>
-      </c>
-      <c r="K74" s="8">
-        <v>0</v>
-      </c>
-      <c r="L74" s="8">
-        <v>1</v>
-      </c>
-      <c r="M74" s="8">
+        <v>133</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B75" s="8">
-        <v>0</v>
-      </c>
-      <c r="C75" s="8">
-        <v>0</v>
-      </c>
-      <c r="D75" s="8">
-        <v>0</v>
-      </c>
-      <c r="E75" s="8">
-        <v>0</v>
-      </c>
-      <c r="F75" s="8">
-        <v>0</v>
-      </c>
-      <c r="G75" s="8">
-        <v>0</v>
-      </c>
-      <c r="H75" s="8">
-        <v>0</v>
-      </c>
-      <c r="I75" s="8">
-        <v>0</v>
-      </c>
-      <c r="J75" s="8">
-        <v>0</v>
-      </c>
-      <c r="K75" s="8">
-        <v>0</v>
-      </c>
-      <c r="L75" s="8">
-        <v>1</v>
-      </c>
-      <c r="M75" s="8">
+        <v>19</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B76" s="8">
-        <v>0</v>
-      </c>
-      <c r="C76" s="8">
-        <v>0</v>
-      </c>
-      <c r="D76" s="8">
-        <v>0</v>
-      </c>
-      <c r="E76" s="8">
-        <v>0</v>
-      </c>
-      <c r="F76" s="8">
-        <v>0</v>
-      </c>
-      <c r="G76" s="8">
-        <v>0</v>
-      </c>
-      <c r="H76" s="8">
-        <v>0</v>
-      </c>
-      <c r="I76" s="8">
-        <v>0</v>
-      </c>
-      <c r="J76" s="8">
-        <v>0</v>
-      </c>
-      <c r="K76" s="8">
-        <v>0</v>
-      </c>
-      <c r="L76" s="8">
-        <v>1</v>
-      </c>
-      <c r="M76" s="8">
-        <v>0</v>
+        <v>134</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B77" s="8">
-        <v>0</v>
-      </c>
-      <c r="C77" s="8">
-        <v>0</v>
-      </c>
-      <c r="D77" s="8">
-        <v>0</v>
-      </c>
-      <c r="E77" s="8">
-        <v>0</v>
-      </c>
-      <c r="F77" s="8">
-        <v>0</v>
-      </c>
-      <c r="G77" s="8">
-        <v>0</v>
-      </c>
-      <c r="H77" s="8">
-        <v>0</v>
-      </c>
-      <c r="I77" s="8">
-        <v>0</v>
-      </c>
-      <c r="J77" s="8">
-        <v>0</v>
-      </c>
-      <c r="K77" s="8">
-        <v>0</v>
-      </c>
-      <c r="L77" s="8">
-        <v>1</v>
-      </c>
-      <c r="M77" s="8">
-        <v>0</v>
+        <v>135</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B78" s="10">
-        <v>0</v>
-      </c>
-      <c r="C78" s="10">
-        <v>0</v>
-      </c>
-      <c r="D78" s="10">
-        <v>0</v>
-      </c>
-      <c r="E78" s="10">
-        <v>0</v>
-      </c>
-      <c r="F78" s="10">
-        <v>0</v>
-      </c>
-      <c r="G78" s="10">
-        <v>0</v>
-      </c>
-      <c r="H78" s="10">
-        <v>0</v>
-      </c>
-      <c r="I78" s="10">
-        <v>0</v>
-      </c>
-      <c r="J78" s="10">
-        <v>0</v>
-      </c>
-      <c r="K78" s="10">
-        <v>0</v>
-      </c>
-      <c r="L78" s="10">
-        <v>1</v>
-      </c>
-      <c r="M78" s="10">
+        <v>136</v>
+      </c>
+      <c r="B78" s="9">
+        <v>0</v>
+      </c>
+      <c r="C78" s="9">
+        <v>0</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0</v>
+      </c>
+      <c r="E78" s="9">
+        <v>0</v>
+      </c>
+      <c r="F78" s="9">
+        <v>0</v>
+      </c>
+      <c r="G78" s="9">
+        <v>0</v>
+      </c>
+      <c r="H78" s="9">
+        <v>0</v>
+      </c>
+      <c r="I78" s="9">
+        <v>0</v>
+      </c>
+      <c r="J78" s="9">
+        <v>1</v>
+      </c>
+      <c r="K78" s="9">
+        <v>0</v>
+      </c>
+      <c r="L78" s="9">
+        <v>0</v>
+      </c>
+      <c r="M78" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>137</v>
+      </c>
+      <c r="B79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>140</v>
+      </c>
+      <c r="B82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>142</v>
+      </c>
+      <c r="B84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>1</v>
+      </c>
+      <c r="M85">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>157</v>
+      </c>
+      <c r="B86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>1</v>
+      </c>
+      <c r="M86">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>144</v>
+      </c>
+      <c r="B87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <f>0</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>145</v>
+      </c>
+      <c r="B88">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <f>0</f>
         <v>0</v>
       </c>
     </row>

--- a/data/IMACLIM_equivalent/MatMat_sectors_all_countries_equivalent.xlsx
+++ b/data/IMACLIM_equivalent/MatMat_sectors_all_countries_equivalent.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\mpotfer\Stage\MatMat-Trade\data\IMACLIM_equivalent\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\Documents\CDD_CIRED_MatMat\matmat_expés\MatMat-Trade\data\IMACLIM_equivalent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E416F0-9C13-4BE0-992D-6D395B77B77A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="regions" sheetId="1" r:id="rId1"/>
@@ -513,7 +512,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -677,7 +676,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{4279C63C-6FC8-4EAC-A493-EE457985FC12}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -976,14 +975,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -3188,11 +3190,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1792CC0-F388-467C-8E88-834E759700E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
